--- a/config/let3back/let3back_run4.xlsx
+++ b/config/let3back/let3back_run4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9324"/>
+    <workbookView windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="16">
   <si>
     <t>letter</t>
   </si>
@@ -38,40 +38,43 @@
     <t>onset</t>
   </si>
   <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
     <t>B</t>
   </si>
   <si>
-    <t>NaN'</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>Y</t>
+    <t>X</t>
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>U</t>
   </si>
 </sst>
 </file>
@@ -294,19 +297,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.79998168889431"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.5999938962981"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519242"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,19 +321,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.79998168889431"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.5999938962981"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519242"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,19 +345,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.79998168889431"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.5999938962981"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519242"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,19 +369,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.79998168889431"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.5999938962981"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519242"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,19 +393,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.79998168889431"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.5999938962981"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519242"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,19 +417,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.79998168889431"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.5999938962981"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519242"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,7 +471,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4" tint="0.49998474074526"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,9 +692,6 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1035,11 +1035,14 @@
   <sheetPr/>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="2" width="5.55555555555556" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1056,7 +1059,7 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2">
@@ -1067,7 +1070,7 @@
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3">
@@ -1078,7 +1081,7 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
@@ -1098,10 +1101,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -1109,10 +1112,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -1120,10 +1123,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -1131,10 +1134,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>14</v>
@@ -1142,10 +1145,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>16</v>
@@ -1153,10 +1156,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>18</v>
@@ -1164,10 +1167,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>20</v>
@@ -1175,10 +1178,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>22</v>
@@ -1186,7 +1189,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -1197,10 +1200,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>26</v>
@@ -1208,10 +1211,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>28</v>
@@ -1219,10 +1222,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>30</v>
@@ -1230,10 +1233,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>32</v>
@@ -1241,7 +1244,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
@@ -1252,7 +1255,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
@@ -1263,7 +1266,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -1274,7 +1277,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
@@ -1285,7 +1288,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
@@ -1296,7 +1299,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
@@ -1307,10 +1310,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <v>46</v>
@@ -1318,10 +1321,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>48</v>
@@ -1329,7 +1332,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
@@ -1340,7 +1343,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
@@ -1351,10 +1354,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C29">
         <v>54</v>
@@ -1362,7 +1365,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
@@ -1373,7 +1376,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
